--- a/Glicemia_Sergio.xlsx
+++ b/Glicemia_Sergio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Documents\GitHub\my_pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peder\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E541ED-F5F1-4626-9290-0315E850D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDEA31D-83ED-45A0-9834-33C317D36B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{54EFCB6D-EC60-4875-AB76-F96918E1E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54EFCB6D-EC60-4875-AB76-F96918E1E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -971,9 +971,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="5">
+        <v>44931</v>
+      </c>
+      <c r="B48" s="1">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
